--- a/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/تقاييم/توليد الافكار الابداعية.xlsx
@@ -276,44 +276,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,147 +622,139 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
@@ -775,6 +767,14 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/تقاييم/توليد الافكار الابداعية.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>القيمة المضافة</t>
   </si>
@@ -176,12 +176,15 @@
     <t>تطوير الية العمل
 حل مشكلة</t>
   </si>
+  <si>
+    <t>مشروع اتمتتة العمليات الحكومية</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +225,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -243,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,11 +275,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,6 +306,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,16 +333,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -330,6 +357,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>747933</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1505597</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF06A99B-6D9A-4076-9C76-CF816C2B7A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9984679663" y="0"/>
+          <a:ext cx="757664" cy="544308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>738614</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EFD43D-8E2A-4A55-9A22-C9F7E8EB9E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="265043"/>
+          <a:ext cx="738614" cy="547646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,174 +741,208 @@
     <col min="5" max="5" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/تقاييم/توليد الافكار الابداعية.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="الاجراءات التحسينية" sheetId="3" r:id="rId1"/>
+    <sheet name="الافكار" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>القيمة المضافة</t>
   </si>
@@ -178,6 +180,50 @@
   </si>
   <si>
     <t>مشروع اتمتتة العمليات الحكومية</t>
+  </si>
+  <si>
+    <t>اجراءات تحسينية</t>
+  </si>
+  <si>
+    <t>الملاحظة</t>
+  </si>
+  <si>
+    <t>الاجراء</t>
+  </si>
+  <si>
+    <t>مشاكل في  استخدام
+الموقع على  شاشات اجهزة الهاتف</t>
+  </si>
+  <si>
+    <t>تصميم الموقع بطريقة تتجاوب 
+مع احجام الشاشات المختلفة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدم وجود بعد حركي للموقع </t>
+  </si>
+  <si>
+    <t>استخدام لغات البرمجة لاعطاء
+بعد حركي للموقع</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bootstrap</t>
+  </si>
+  <si>
+    <t>التقنية المضافة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascritp
+ jQuery </t>
+  </si>
+  <si>
+    <t>صعوبة الوصول للموقع لعدم
+وجود نطاق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استئجار نطاق للموقع </t>
+  </si>
+  <si>
+    <t>GoDaddy</t>
   </si>
 </sst>
 </file>
@@ -288,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,41 +352,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,6 +415,111 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>443133</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254866</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF06A99B-6D9A-4076-9C76-CF816C2B7A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9984047203" y="0"/>
+          <a:ext cx="757664" cy="544308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>738614</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EFD43D-8E2A-4A55-9A22-C9F7E8EB9E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9989515726" y="0"/>
+          <a:ext cx="738614" cy="544129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -727,10 +887,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="6" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,21 +1181,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
@@ -764,14 +1203,14 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -791,16 +1230,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -808,30 +1247,30 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -839,23 +1278,23 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -863,10 +1302,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -887,34 +1326,34 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="11"/>
     </row>
   </sheetData>
@@ -945,4 +1384,16 @@
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/تقاييم/توليد الافكار الابداعية.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="الاجراءات التحسينية" sheetId="3" r:id="rId1"/>
-    <sheet name="الافكار" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="الاجراءات التطويرية" sheetId="4" r:id="rId1"/>
+    <sheet name="الاجراءات التحسينية" sheetId="3" r:id="rId2"/>
+    <sheet name="الافكار" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>القيمة المضافة</t>
   </si>
@@ -224,6 +225,44 @@
   </si>
   <si>
     <t>GoDaddy</t>
+  </si>
+  <si>
+    <t>تحديث التطبيقات القائمة</t>
+  </si>
+  <si>
+    <t>ادخال بنود جديدة للتعميم مثل الحديد والباطون</t>
+  </si>
+  <si>
+    <t>عطاءات كفالة الصيانة</t>
+  </si>
+  <si>
+    <t>اجراءات تطويرية</t>
+  </si>
+  <si>
+    <t>اضافة عنصر في الادخال يشمل الايميل او رقم الهاتف
+للمهندس المشرف حتى يتم ارسال اشعارات بقرب انهاء 
+كفالة الصيانة تلقائياً</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استطاعة جميع
+ المستخدمين الادخال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمل خاصبة الوصول 
+لمستخدمين معينين </t>
+  </si>
+  <si>
+    <t>username
+password</t>
+  </si>
+  <si>
+    <t>برنامج ادخال الانجازات الشهرية لمديرية مادبا</t>
+  </si>
+  <si>
+    <t>توسعة البرنامج ليشمل جميع مديريات الاشغال</t>
+  </si>
+  <si>
+    <t>اضافة تطبيقات جديدة</t>
   </si>
 </sst>
 </file>
@@ -298,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -330,11 +369,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,47 +431,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,6 +509,111 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>443133</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254866</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF06A99B-6D9A-4076-9C76-CF816C2B7A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9984718814" y="0"/>
+          <a:ext cx="756613" cy="544308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>738614</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EFD43D-8E2A-4A55-9A22-C9F7E8EB9E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9989035666" y="0"/>
+          <a:ext cx="738614" cy="544129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -519,7 +718,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -887,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,14 +1099,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -915,12 +1114,12 @@
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -928,14 +1127,14 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -943,12 +1142,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -973,118 +1172,110 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="20"/>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="20"/>
+    <row r="8" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="20"/>
+    <row r="9" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="20"/>
+    <row r="10" spans="1:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+    <row r="14" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+    <row r="15" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+    <row r="16" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1105,58 +1296,28 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
+  <mergeCells count="20">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1166,10 +1327,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="6" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,13 +1594,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1198,11 +1611,11 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1230,83 +1643,83 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1326,38 +1739,43 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E12:E14"/>
@@ -1374,11 +1792,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1386,7 +1799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/تقاييم/توليد الافكار الابداعية.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9E26C0-ABCF-42C6-AB2E-FE51D5EDD553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الاجراءات التطويرية" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>القيمة المضافة</t>
   </si>
@@ -264,11 +265,18 @@
   <si>
     <t>اضافة تطبيقات جديدة</t>
   </si>
+  <si>
+    <t>ملاحظة:</t>
+  </si>
+  <si>
+    <t>التحسينات كانت بناءاً على ملاحظات المستخدمين الماخوذة من استبيان 
+((النتائج واثار الافكار الابداعية والابتكارية))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,10 +440,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +469,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,34 +499,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +542,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF06A99B-6D9A-4076-9C76-CF816C2B7A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,7 +592,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EFD43D-8E2A-4A55-9A22-C9F7E8EB9E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,13 +631,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>443133</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>254866</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>10908</xdr:rowOff>
@@ -633,7 +647,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF06A99B-6D9A-4076-9C76-CF816C2B7A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,13 +681,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>738614</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>10729</xdr:rowOff>
@@ -683,7 +697,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EFD43D-8E2A-4A55-9A22-C9F7E8EB9E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -738,7 +752,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF06A99B-6D9A-4076-9C76-CF816C2B7A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -788,7 +802,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EFD43D-8E2A-4A55-9A22-C9F7E8EB9E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,76 +1099,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1163,7 +1177,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1172,57 +1186,57 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1231,54 +1245,54 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1287,7 +1301,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1298,6 +1312,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A12:F12"/>
@@ -1305,19 +1330,8 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1326,250 +1340,256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
+  <mergeCells count="18">
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1578,29 +1598,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1610,12 +1630,12 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+    <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1625,7 +1645,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1642,86 +1662,86 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1738,44 +1758,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13"/>
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E12:E14"/>
@@ -1792,6 +1807,11 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1800,12 +1820,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/تقاييم/توليد الافكار الابداعية.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9E26C0-ABCF-42C6-AB2E-FE51D5EDD553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="الاجراءات التطويرية" sheetId="4" r:id="rId1"/>
-    <sheet name="الاجراءات التحسينية" sheetId="3" r:id="rId2"/>
-    <sheet name="الافكار" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="تنفيذ المشروع والدورات" sheetId="5" r:id="rId1"/>
+    <sheet name="الاجراءات التطويرية" sheetId="4" r:id="rId2"/>
+    <sheet name="الاجراءات التحسينية" sheetId="3" r:id="rId3"/>
+    <sheet name="الافكار" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>القيمة المضافة</t>
   </si>
@@ -240,44 +240,72 @@
     <t>اجراءات تطويرية</t>
   </si>
   <si>
+    <t xml:space="preserve">استطاعة جميع
+ المستخدمين الادخال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمل خاصبة الوصول 
+لمستخدمين معينين </t>
+  </si>
+  <si>
+    <t>username
+password</t>
+  </si>
+  <si>
+    <t>برنامج ادخال الانجازات الشهرية لمديرية مادبا</t>
+  </si>
+  <si>
+    <t>توسعة البرنامج ليشمل جميع مديريات الاشغال</t>
+  </si>
+  <si>
+    <t>اضافة تطبيقات جديدة</t>
+  </si>
+  <si>
+    <t>ملاحظة:</t>
+  </si>
+  <si>
+    <t>التحسينات كانت بناءاً على ملاحظات المستخدمين الماخوذة من استبيان 
+((النتائج واثار الافكار الابداعية والابتكارية))</t>
+  </si>
+  <si>
     <t>اضافة عنصر في الادخال يشمل الايميل او رقم الهاتف
 للمهندس المشرف حتى يتم ارسال اشعارات بقرب انهاء 
-كفالة الصيانة تلقائياً</t>
-  </si>
-  <si>
-    <t xml:space="preserve">استطاعة جميع
- المستخدمين الادخال </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عمل خاصبة الوصول 
-لمستخدمين معينين </t>
-  </si>
-  <si>
-    <t>username
-password</t>
-  </si>
-  <si>
-    <t>برنامج ادخال الانجازات الشهرية لمديرية مادبا</t>
-  </si>
-  <si>
-    <t>توسعة البرنامج ليشمل جميع مديريات الاشغال</t>
-  </si>
-  <si>
-    <t>اضافة تطبيقات جديدة</t>
-  </si>
-  <si>
-    <t>ملاحظة:</t>
-  </si>
-  <si>
-    <t>التحسينات كانت بناءاً على ملاحظات المستخدمين الماخوذة من استبيان 
-((النتائج واثار الافكار الابداعية والابتكارية))</t>
+كفالة الصيانة تلقائياً
+توسعة البرنامج ليشمل جميع مديريات الاشغال عن طريق ربط العطاءات باسم المستخدم</t>
+  </si>
+  <si>
+    <t>تعريف وتمكين الموظفين من التطبيقات</t>
+  </si>
+  <si>
+    <t>رقم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاسم </t>
+  </si>
+  <si>
+    <t>القسم</t>
+  </si>
+  <si>
+    <t>تزويد برابط الوقع</t>
+  </si>
+  <si>
+    <t>التوقيع</t>
+  </si>
+  <si>
+    <t>دورة تدريبية</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +352,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -345,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -414,11 +463,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,6 +506,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,23 +539,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -475,35 +572,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,6 +621,111 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448388</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585941</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9982223659" y="0"/>
+          <a:ext cx="747153" cy="546936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386517</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9988997566" y="0"/>
+          <a:ext cx="738614" cy="544129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -627,7 +830,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -732,7 +935,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1099,76 +1302,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="7" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1177,7 +1381,503 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="6" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1186,57 +1886,57 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:11" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1245,54 +1945,54 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+    <row r="14" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="15"/>
+    <row r="15" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+    <row r="16" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1301,7 +2001,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1312,17 +2012,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A12:F12"/>
@@ -1332,264 +2021,17 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:L18"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="7" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1598,29 +2040,287 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="7" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1630,7 +2330,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1645,7 +2345,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1662,14 +2362,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="26" t="s">
@@ -1679,28 +2379,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="26"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+    <row r="6" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="26"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1710,21 +2410,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="25"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -1734,14 +2434,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+    <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="26"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1758,14 +2458,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="26" t="s">
@@ -1775,22 +2475,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="26"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="26"/>
       <c r="E14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E12:E14"/>
@@ -1807,11 +2512,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1819,13 +2519,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/تقاييم/توليد الافكار الابداعية.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947F27B2-1E83-4535-93BD-53CF7CE8D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="تنفيذ المشروع والدورات" sheetId="5" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>القيمة المضافة</t>
   </si>
@@ -274,9 +275,6 @@
 توسعة البرنامج ليشمل جميع مديريات الاشغال عن طريق ربط العطاءات باسم المستخدم</t>
   </si>
   <si>
-    <t>تعريف وتمكين الموظفين من التطبيقات</t>
-  </si>
-  <si>
     <t>رقم</t>
   </si>
   <si>
@@ -286,9 +284,6 @@
     <t>القسم</t>
   </si>
   <si>
-    <t>تزويد برابط الوقع</t>
-  </si>
-  <si>
     <t>التوقيع</t>
   </si>
   <si>
@@ -299,13 +294,23 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>تعريف وتمكين الموظفين من تطبيقات موقع اتمتتة العمليات  بمديرية اشغال مادبا</t>
+  </si>
+  <si>
+    <t>تزويد برابط الموقع
+ووضعها على قائمة المفضلة في المتصفح</t>
+  </si>
+  <si>
+    <t>تاريخ:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,13 +353,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -482,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,80 +519,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,6 +540,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +752,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,7 +802,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -850,7 +857,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -900,7 +907,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -955,7 +962,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,7 +1012,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,495 +1309,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="7" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="44" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="33" t="s">
+      <c r="E8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="F8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
+      <c r="D9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+  <mergeCells count="16">
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1799,76 +1662,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="6" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1877,7 +1740,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1886,57 +1749,57 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:11" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1945,54 +1808,54 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2001,7 +1864,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2012,6 +1875,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A12:F12"/>
@@ -2021,17 +1895,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2040,77 +1903,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="7" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2119,7 +1982,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2128,82 +1991,82 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2212,7 +2075,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2221,7 +2084,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
@@ -2232,18 +2095,18 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2252,7 +2115,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2261,7 +2124,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2272,17 +2135,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
@@ -2290,6 +2142,17 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2298,29 +2161,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2330,12 +2193,12 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+    <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2345,7 +2208,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2362,86 +2225,86 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2458,44 +2321,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="23"/>
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E12:E14"/>
@@ -2512,6 +2370,11 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2520,12 +2383,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/تقاييم/توليد الافكار الابداعية.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947F27B2-1E83-4535-93BD-53CF7CE8D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E697F-41FE-48EE-A5CB-2D1B46BB31C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="تنفيذ المشروع والدورات" sheetId="5" r:id="rId1"/>
@@ -287,16 +287,10 @@
     <t>التوقيع</t>
   </si>
   <si>
-    <t>دورة تدريبية</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>تعريف وتمكين الموظفين من تطبيقات موقع اتمتتة العمليات  بمديرية اشغال مادبا</t>
   </si>
   <si>
     <t>تزويد برابط الموقع
@@ -304,6 +298,12 @@
   </si>
   <si>
     <t>تاريخ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعريف وتمكين الموظفين من تطبيقات موقع اتمتتة العمليات  </t>
+  </si>
+  <si>
+    <t>شرح التطبيقات</t>
   </si>
 </sst>
 </file>
@@ -535,6 +535,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,13 +545,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,23 +577,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -583,31 +607,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,13 +631,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>448388</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>585941</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>10908</xdr:rowOff>
@@ -681,13 +681,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>386517</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>10729</xdr:rowOff>
@@ -1310,350 +1310,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="44" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="G8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>4</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>7</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="H14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>8</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>10</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>10</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1676,14 +1677,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -1691,12 +1692,12 @@
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1704,14 +1705,14 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1719,12 +1720,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1761,42 +1762,42 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1809,12 +1810,12 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,30 +1830,30 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,17 +1876,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A12:F12"/>
@@ -1895,6 +1885,17 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1918,14 +1919,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -1933,12 +1934,12 @@
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1946,14 +1947,14 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1961,12 +1962,12 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1992,78 +1993,78 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,14 +2097,14 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2135,6 +2136,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
@@ -2142,17 +2154,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2177,13 +2178,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2194,11 +2195,11 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2226,83 +2227,83 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="39"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2322,38 +2323,43 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E12:E14"/>
@@ -2370,11 +2376,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
